--- a/src/main/java/main_HRM_anhtester/datatest/excel/ManageClient.xlsx
+++ b/src/main/java/main_HRM_anhtester/datatest/excel/ManageClient.xlsx
@@ -16,84 +16,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>Fields</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+  <si>
+    <t>Data Add New Client</t>
   </si>
   <si>
     <t>FirstName</t>
   </si>
   <si>
+    <t>tan</t>
+  </si>
+  <si>
     <t>LastName</t>
   </si>
   <si>
+    <t>phat</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
     <t>ContactNumber</t>
   </si>
   <si>
+    <t>0386016093</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
+    <t>tanphat@gmail.com</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Bằng</t>
-  </si>
-  <si>
-    <t>Kiều</t>
+    <t>tanphat</t>
+  </si>
+  <si>
+    <t>Data Find To Client</t>
+  </si>
+  <si>
+    <t>Data Edit Client</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>tai</t>
+  </si>
+  <si>
+    <t>phuoc</t>
+  </si>
+  <si>
+    <t>tanphuoc@gmail.com</t>
   </si>
   <si>
     <t>0708663153</t>
   </si>
   <si>
-    <t>kieubang@gmail.com</t>
-  </si>
-  <si>
-    <t>kieubang</t>
-  </si>
-  <si>
-    <t>Value</t>
+    <t>tanphuoc</t>
+  </si>
+  <si>
+    <t>tantai@gmail.com</t>
   </si>
   <si>
     <t>ContactName</t>
   </si>
   <si>
+    <t>0589157653</t>
+  </si>
+  <si>
+    <t>tantai</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
+    <t>3 Sông thao</t>
+  </si>
+  <si>
     <t>AddressLine2</t>
   </si>
   <si>
+    <t>4 Sông thao</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
-    <t>finToClientEdit</t>
-  </si>
-  <si>
-    <t>Đan</t>
-  </si>
-  <si>
-    <t>Nguyên</t>
-  </si>
-  <si>
-    <t>dannguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>dannguyen</t>
-  </si>
-  <si>
-    <t>0589157653</t>
-  </si>
-  <si>
-    <t>Lê Duẩn</t>
-  </si>
-  <si>
-    <t>TP HCM</t>
-  </si>
-  <si>
-    <t>findToClientDelete</t>
+    <t>Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Data Find To Client Delete</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>0343760115</t>
+  </si>
+  <si>
+    <t>tanloc@gmail.com</t>
+  </si>
+  <si>
+    <t>tanloc</t>
   </si>
 </sst>
 </file>
@@ -115,14 +142,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -273,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,13 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -500,6 +523,32 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -632,7 +681,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,147 +693,165 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,72 +1387,113 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.1681415929204" customWidth="1"/>
-    <col min="2" max="2" width="14.2212389380531" customWidth="1"/>
-    <col min="3" max="3" width="13.7610619469027" customWidth="1"/>
-    <col min="4" max="4" width="13.3716814159292" customWidth="1"/>
-    <col min="5" max="5" width="21.6106194690265" customWidth="1"/>
-    <col min="6" max="6" width="19.4955752212389" customWidth="1"/>
-    <col min="7" max="7" width="14.2300884955752" customWidth="1"/>
+    <col min="1" max="1" width="9.02654867256637" style="1"/>
+    <col min="2" max="2" width="20.9557522123894" customWidth="1"/>
+    <col min="3" max="3" width="18.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="13.7610619469027" customWidth="1"/>
+    <col min="5" max="5" width="13.3716814159292" customWidth="1"/>
+    <col min="6" max="6" width="21.6106194690265" customWidth="1"/>
+    <col min="7" max="7" width="19.4955752212389" customWidth="1"/>
+    <col min="8" max="8" width="14.2300884955752" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
-        <v>112200</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="kieubang@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId1" display="tanphat@gmail.com" tooltip="mailto:tanphat@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1395,89 +1503,215 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.8849557522124" customWidth="1"/>
-    <col min="2" max="2" width="19.4955752212389" customWidth="1"/>
-    <col min="3" max="3" width="13.7610619469027" customWidth="1"/>
-    <col min="4" max="4" width="21.2300884955752" customWidth="1"/>
-    <col min="5" max="5" width="14.2300884955752" customWidth="1"/>
-    <col min="6" max="6" width="18.6814159292035" customWidth="1"/>
-    <col min="7" max="7" width="11.3185840707965" customWidth="1"/>
-    <col min="8" max="8" width="18.2920353982301" customWidth="1"/>
+    <col min="1" max="1" width="9.02654867256637" style="1"/>
+    <col min="2" max="2" width="21.6106194690265" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7610619469027" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.2300884955752" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7610619469027" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8318584070796" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.2566371681416" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6814159292035" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.2920353982301" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.78761061946903" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.2212389380531" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7610619469027" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.3716814159292" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6106194690265" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.4955752212389" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.2300884955752" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.02654867256637" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="2:10">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>C7</f>
+        <v>tantai@gmail.com</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C5" s="7">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="18" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13" t="s">
         <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="dannguyen@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="kieubang@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId1" display="tantai@gmail.com"/>
+    <hyperlink ref="G5" r:id="rId2" display="tanphuoc@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1487,33 +1721,173 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.2743362831858" customWidth="1"/>
-    <col min="2" max="2" width="21.2300884955752" customWidth="1"/>
+    <col min="1" max="1" width="9.02654867256637" style="1"/>
+    <col min="2" max="2" width="21.6106194690265" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.4955752212389" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.212389380531" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.2300884955752" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8318584070796" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.2566371681416" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6814159292035" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.2920353982301" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.78761061946903" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.2212389380531" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7610619469027" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.3716814159292" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6106194690265" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.4955752212389" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.2300884955752" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.02654867256637" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="str">
-        <f>editNewClient!E2</f>
-        <v>dannguyen@gmail.com</v>
-      </c>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>C7</f>
+        <v>tanloc@gmail.com</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:4">
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:4">
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="tanloc@gmail.com" tooltip="mailto:tanloc@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
